--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H2">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I2">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J2">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N2">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O2">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P2">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q2">
-        <v>42.82193254854511</v>
+        <v>18.25434930011222</v>
       </c>
       <c r="R2">
-        <v>385.397392936906</v>
+        <v>164.28914370101</v>
       </c>
       <c r="S2">
-        <v>0.230371143316502</v>
+        <v>0.07320080244948372</v>
       </c>
       <c r="T2">
-        <v>0.2777318306405521</v>
+        <v>0.1061728472956009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H3">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I3">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J3">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O3">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P3">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q3">
-        <v>3.339488256028444</v>
+        <v>2.437899479964444</v>
       </c>
       <c r="R3">
-        <v>30.05539430425599</v>
+        <v>21.94109531968</v>
       </c>
       <c r="S3">
-        <v>0.01796560037922534</v>
+        <v>0.00977609200364536</v>
       </c>
       <c r="T3">
-        <v>0.02165904552995042</v>
+        <v>0.01417956482331027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H4">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I4">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J4">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N4">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O4">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P4">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q4">
-        <v>0.3841209526335556</v>
+        <v>0.1769196263327778</v>
       </c>
       <c r="R4">
-        <v>3.457088573702</v>
+        <v>1.592276636995</v>
       </c>
       <c r="S4">
-        <v>0.002066473364547453</v>
+        <v>0.0007094560536618267</v>
       </c>
       <c r="T4">
-        <v>0.002491307818519619</v>
+        <v>0.001029018354004506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H5">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I5">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J5">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N5">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O5">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P5">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q5">
-        <v>7.110294273977666</v>
+        <v>9.645974104597499</v>
       </c>
       <c r="R5">
-        <v>42.661765643866</v>
+        <v>57.875844627585</v>
       </c>
       <c r="S5">
-        <v>0.03825158099429738</v>
+        <v>0.0386808115290714</v>
       </c>
       <c r="T5">
-        <v>0.03074367000860553</v>
+        <v>0.0374026127066041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H6">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I6">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J6">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N6">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O6">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P6">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q6">
-        <v>0.9852769837359998</v>
+        <v>0.7815217370972222</v>
       </c>
       <c r="R6">
-        <v>8.867492853623999</v>
+        <v>7.033695633875</v>
       </c>
       <c r="S6">
-        <v>0.005300540440798218</v>
+        <v>0.003133939060039758</v>
       </c>
       <c r="T6">
-        <v>0.006390248269873981</v>
+        <v>0.004545568110198591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J7">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N7">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O7">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P7">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q7">
-        <v>44.75474619783223</v>
+        <v>26.13384541846445</v>
       </c>
       <c r="R7">
-        <v>402.79271578049</v>
+        <v>235.20460876618</v>
       </c>
       <c r="S7">
-        <v>0.2407691908520549</v>
+        <v>0.1047979538613628</v>
       </c>
       <c r="T7">
-        <v>0.2902675533685026</v>
+        <v>0.1520023931416939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J8">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O8">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P8">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q8">
         <v>3.490219624248889</v>
@@ -948,10 +948,10 @@
         <v>31.41197661824</v>
       </c>
       <c r="S8">
-        <v>0.01877649693535903</v>
+        <v>0.01399594546042699</v>
       </c>
       <c r="T8">
-        <v>0.02263664967668905</v>
+        <v>0.02030017882868104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J9">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N9">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O9">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P9">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q9">
-        <v>0.4014586619811111</v>
+        <v>0.2532870435455556</v>
       </c>
       <c r="R9">
-        <v>3.61312795783</v>
+        <v>2.27958339191</v>
       </c>
       <c r="S9">
-        <v>0.002159745846361711</v>
+        <v>0.00101569300185781</v>
       </c>
       <c r="T9">
-        <v>0.002603755657036754</v>
+        <v>0.001473194478433211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J10">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N10">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O10">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P10">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q10">
-        <v>7.431224998148333</v>
+        <v>13.809662125755</v>
       </c>
       <c r="R10">
-        <v>44.58734998889</v>
+        <v>82.85797275453001</v>
       </c>
       <c r="S10">
-        <v>0.03997810694612768</v>
+        <v>0.05537739705437184</v>
       </c>
       <c r="T10">
-        <v>0.03213131838142121</v>
+        <v>0.05354746327304455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J11">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N11">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O11">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P11">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q11">
-        <v>1.02974851244</v>
+        <v>1.118865862194444</v>
       </c>
       <c r="R11">
-        <v>9.26773661196</v>
+        <v>10.06979275975</v>
       </c>
       <c r="S11">
-        <v>0.005539785993318738</v>
+        <v>0.004486704927108155</v>
       </c>
       <c r="T11">
-        <v>0.006678678948810387</v>
+        <v>0.006507664139542966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H12">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I12">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J12">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.92976633333333</v>
+        <v>23.31637266666667</v>
       </c>
       <c r="N12">
-        <v>119.789299</v>
+        <v>69.949118</v>
       </c>
       <c r="O12">
-        <v>0.7836943683202754</v>
+        <v>0.5832682088864471</v>
       </c>
       <c r="P12">
-        <v>0.8192290241759873</v>
+        <v>0.650052653999578</v>
       </c>
       <c r="Q12">
-        <v>58.08772774900083</v>
+        <v>101.0635116067973</v>
       </c>
       <c r="R12">
-        <v>348.526366494005</v>
+        <v>606.3810696407841</v>
       </c>
       <c r="S12">
-        <v>0.3124972521738669</v>
+        <v>0.4052694525756006</v>
       </c>
       <c r="T12">
-        <v>0.2511611847066302</v>
+        <v>0.3918774135622832</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H13">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I13">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J13">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.341823999999999</v>
       </c>
       <c r="O13">
-        <v>0.06111676852403308</v>
+        <v>0.07789646400133915</v>
       </c>
       <c r="P13">
-        <v>0.06388795512981353</v>
+        <v>0.08681564054027034</v>
       </c>
       <c r="Q13">
-        <v>4.529998369813333</v>
+        <v>13.49720432861867</v>
       </c>
       <c r="R13">
-        <v>27.17999021888</v>
+        <v>80.983225971712</v>
       </c>
       <c r="S13">
-        <v>0.02437024304058981</v>
+        <v>0.0541244265372668</v>
       </c>
       <c r="T13">
-        <v>0.01958692139237605</v>
+        <v>0.05233589688827903</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H14">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I14">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J14">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3581776666666667</v>
+        <v>0.2259803333333333</v>
       </c>
       <c r="N14">
-        <v>1.074533</v>
+        <v>0.677941</v>
       </c>
       <c r="O14">
-        <v>0.007029888877422101</v>
+        <v>0.005652986686703996</v>
       </c>
       <c r="P14">
-        <v>0.007348641559667998</v>
+        <v>0.006300255941828</v>
       </c>
       <c r="Q14">
-        <v>0.5210580651391667</v>
+        <v>0.9794990999346668</v>
       </c>
       <c r="R14">
-        <v>3.126348390835</v>
+        <v>5.876994599608</v>
       </c>
       <c r="S14">
-        <v>0.002803160321274956</v>
+        <v>0.00392783763118436</v>
       </c>
       <c r="T14">
-        <v>0.002252964025495879</v>
+        <v>0.003798043109390283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H15">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I15">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J15">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.630069499999999</v>
+        <v>12.3208515</v>
       </c>
       <c r="N15">
-        <v>13.260139</v>
+        <v>24.641703</v>
       </c>
       <c r="O15">
-        <v>0.1301271859531132</v>
+        <v>0.3082109335400439</v>
       </c>
       <c r="P15">
-        <v>0.09068498458621042</v>
+        <v>0.2290008064750633</v>
       </c>
       <c r="Q15">
-        <v>9.645077029951249</v>
+        <v>53.40404085906601</v>
       </c>
       <c r="R15">
-        <v>38.580308119805</v>
+        <v>213.616163436264</v>
       </c>
       <c r="S15">
-        <v>0.05188806974665818</v>
+        <v>0.2141527249566006</v>
       </c>
       <c r="T15">
-        <v>0.02780241848326194</v>
+        <v>0.1380507304954146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H16">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I16">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J16">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9187319999999999</v>
+        <v>0.9982416666666666</v>
       </c>
       <c r="N16">
-        <v>2.756196</v>
+        <v>2.994725</v>
       </c>
       <c r="O16">
-        <v>0.0180317883251564</v>
+        <v>0.02497140688546588</v>
       </c>
       <c r="P16">
-        <v>0.01884939454832071</v>
+        <v>0.02783064304326019</v>
       </c>
       <c r="Q16">
-        <v>1.33652308017</v>
+        <v>4.326822602633333</v>
       </c>
       <c r="R16">
-        <v>8.019138481019999</v>
+        <v>25.9609356158</v>
       </c>
       <c r="S16">
-        <v>0.007190155411566464</v>
+        <v>0.01735076289831797</v>
       </c>
       <c r="T16">
-        <v>0.005778892258511967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.000793</v>
-      </c>
-      <c r="I17">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J17">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>39.92976633333333</v>
-      </c>
-      <c r="N17">
-        <v>119.789299</v>
-      </c>
-      <c r="O17">
-        <v>0.7836943683202754</v>
-      </c>
-      <c r="P17">
-        <v>0.8192290241759873</v>
-      </c>
-      <c r="Q17">
-        <v>0.01055476823411111</v>
-      </c>
-      <c r="R17">
-        <v>0.094992914107</v>
-      </c>
-      <c r="S17">
-        <v>5.678197785156908E-05</v>
-      </c>
-      <c r="T17">
-        <v>6.845546030234036E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.000793</v>
-      </c>
-      <c r="I18">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J18">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>3.113941333333333</v>
-      </c>
-      <c r="N18">
-        <v>9.341823999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.06111676852403308</v>
-      </c>
-      <c r="P18">
-        <v>0.06388795512981353</v>
-      </c>
-      <c r="Q18">
-        <v>0.0008231184924444443</v>
-      </c>
-      <c r="R18">
-        <v>0.007408066431999999</v>
-      </c>
-      <c r="S18">
-        <v>4.428168858899962E-06</v>
-      </c>
-      <c r="T18">
-        <v>5.338530798009347E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.000793</v>
-      </c>
-      <c r="I19">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J19">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3581776666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.074533</v>
-      </c>
-      <c r="O19">
-        <v>0.007029888877422101</v>
-      </c>
-      <c r="P19">
-        <v>0.007348641559667998</v>
-      </c>
-      <c r="Q19">
-        <v>9.467829655555555E-05</v>
-      </c>
-      <c r="R19">
-        <v>0.0008521046689999999</v>
-      </c>
-      <c r="S19">
-        <v>5.093452379813999E-07</v>
-      </c>
-      <c r="T19">
-        <v>6.140586157454239E-07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.000793</v>
-      </c>
-      <c r="I20">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J20">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>6.630069499999999</v>
-      </c>
-      <c r="N20">
-        <v>13.260139</v>
-      </c>
-      <c r="O20">
-        <v>0.1301271859531132</v>
-      </c>
-      <c r="P20">
-        <v>0.09068498458621042</v>
-      </c>
-      <c r="Q20">
-        <v>0.001752548371166666</v>
-      </c>
-      <c r="R20">
-        <v>0.010515290227</v>
-      </c>
-      <c r="S20">
-        <v>9.428266029923851E-06</v>
-      </c>
-      <c r="T20">
-        <v>7.577712921736149E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.000793</v>
-      </c>
-      <c r="I21">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J21">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.9187319999999999</v>
-      </c>
-      <c r="N21">
-        <v>2.756196</v>
-      </c>
-      <c r="O21">
-        <v>0.0180317883251564</v>
-      </c>
-      <c r="P21">
-        <v>0.01884939454832071</v>
-      </c>
-      <c r="Q21">
-        <v>0.000242851492</v>
-      </c>
-      <c r="R21">
-        <v>0.002185663428</v>
-      </c>
-      <c r="S21">
-        <v>1.306479472983503E-06</v>
-      </c>
-      <c r="T21">
-        <v>1.575071124370377E-06</v>
+        <v>0.01677741079351864</v>
       </c>
     </row>
   </sheetData>
